--- a/train_results_True_1024_DecisionTreeRegressor.xlsx
+++ b/train_results_True_1024_DecisionTreeRegressor.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8952586585569448</v>
+        <v>29.04166666666667</v>
       </c>
       <c r="C2">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8798047440710558</v>
+        <v>28.93333333333333</v>
       </c>
       <c r="C3">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9210151827000936</v>
+        <v>29.22222222222222</v>
       </c>
       <c r="C4">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-2.249018557995143</v>
+        <v>6.999999999999998</v>
       </c>
       <c r="C5">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.416884701062643</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="C6">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-1.892389762166929</v>
+        <v>21.57142857142857</v>
       </c>
       <c r="C7">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8627750279291816</v>
+        <v>28.8139534883721</v>
       </c>
       <c r="C8">
-        <v>-2.819624631320286</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4435288505078737</v>
+        <v>25.875</v>
       </c>
       <c r="C9">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2830458923851773</v>
+        <v>24.75</v>
       </c>
       <c r="C10">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.4183240727436439</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="C11">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8607845416268844</v>
+        <v>28.8</v>
       </c>
       <c r="C12">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8077996919609782</v>
+        <v>28.42857142857143</v>
       </c>
       <c r="C13">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7823262065446772</v>
+        <v>28.25</v>
       </c>
       <c r="C14">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.6908250500687921</v>
+        <v>17.92307692307692</v>
       </c>
       <c r="C15">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.2233669976908868</v>
+        <v>21.2</v>
       </c>
       <c r="C16">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7686097143974382</v>
+        <v>28.15384615384615</v>
       </c>
       <c r="C17">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8893148452931414</v>
+        <v>15.5</v>
       </c>
       <c r="C18">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.7127714375043743</v>
+        <v>17.76923076923077</v>
       </c>
       <c r="C19">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-1.607086725504358</v>
+        <v>11.5</v>
       </c>
       <c r="C20">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8037239342943699</v>
+        <v>28.4</v>
       </c>
       <c r="C21">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.7127714375043743</v>
+        <v>17.76923076923077</v>
       </c>
       <c r="C22">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7725999666584531</v>
+        <v>28.18181818181818</v>
       </c>
       <c r="C23">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8955170852205887</v>
+        <v>29.04347826086957</v>
       </c>
       <c r="C24">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.556139754671756</v>
+        <v>11.85714285714286</v>
       </c>
       <c r="C25">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-1.469190257784114</v>
+        <v>12.46666666666667</v>
       </c>
       <c r="C26">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7576365206796469</v>
+        <v>28.07692307692308</v>
       </c>
       <c r="C27">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5224966552984068</v>
+        <v>26.42857142857143</v>
       </c>
       <c r="C28">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.1092457830258583</v>
+        <v>9.500000000000002</v>
       </c>
       <c r="C29">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8417643391827129</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="C30">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7751936306281131</v>
+        <v>28.2</v>
       </c>
       <c r="C31">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8358205259189093</v>
+        <v>28.625</v>
       </c>
       <c r="C32">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7409572662286046</v>
+        <v>27.96</v>
       </c>
       <c r="C33">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9178451489593985</v>
+        <v>29.2</v>
       </c>
       <c r="C35">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5428754436314477</v>
+        <v>26.57142857142857</v>
       </c>
       <c r="C36">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8952586585569452</v>
+        <v>29.04166666666667</v>
       </c>
       <c r="C37">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.895258658556945</v>
+        <v>29.04166666666667</v>
       </c>
       <c r="C38">
-        <v>-0.9651548930135722</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.5983367030188377</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="C39">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.570119919173089</v>
+        <v>18.76923076923077</v>
       </c>
       <c r="C40">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7694875698948614</v>
+        <v>28.16</v>
       </c>
       <c r="C41">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.5847508441301439</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="C42">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.8952586585569451</v>
+        <v>29.04166666666667</v>
       </c>
       <c r="C43">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.6277870616857845</v>
+        <v>27.16666666666667</v>
       </c>
       <c r="C44">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.402025167903134</v>
+        <v>12.9375</v>
       </c>
       <c r="C45">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.012705399124001</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="C46">
-        <v>-2.106367039663857</v>
+        <v>8.000000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.841764339182713</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="C47">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.7127714375043743</v>
+        <v>17.76923076923077</v>
       </c>
       <c r="C48">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8208421164941244</v>
+        <v>28.52</v>
       </c>
       <c r="C49">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7956997863882354</v>
+        <v>28.34375</v>
       </c>
       <c r="C50">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.193397322343629</v>
+        <v>14.4</v>
       </c>
       <c r="C51">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.8641410479405616</v>
+        <v>28.82352941176471</v>
       </c>
       <c r="C52">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9022831651414402</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="C53">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.895258658556945</v>
+        <v>29.04166666666667</v>
       </c>
       <c r="C54">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-1.214795050093322</v>
+        <v>14.25</v>
       </c>
       <c r="C55">
-        <v>-2.819624631320286</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9402618161257434</v>
+        <v>29.35714285714286</v>
       </c>
       <c r="C56">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.06193603897168461</v>
+        <v>23.2</v>
       </c>
       <c r="C57">
-        <v>-2.249018557995143</v>
+        <v>7.000000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7181330232955986</v>
+        <v>27.8</v>
       </c>
       <c r="C58">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.9176043869031437</v>
+        <v>2.999999999999999</v>
       </c>
       <c r="C59">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.2518973013571439</v>
+        <v>21</v>
       </c>
       <c r="C60">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-1.892389762166929</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="C61">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.02243254158763624</v>
+        <v>22.92307692307692</v>
       </c>
       <c r="C62">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C63">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-1.303952249050376</v>
+        <v>13.625</v>
       </c>
       <c r="C64">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.5983367030188377</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="C65">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.4435288505078737</v>
+        <v>25.875</v>
       </c>
       <c r="C66">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.02999493950847727</v>
+        <v>22.55555555555556</v>
       </c>
       <c r="C67">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-1.128185199677899</v>
+        <v>29</v>
       </c>
       <c r="C68">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.6688786626332097</v>
+        <v>18.07692307692308</v>
       </c>
       <c r="C69">
-        <v>-0.9651548930135722</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.8955170852205888</v>
+        <v>29.04347826086957</v>
       </c>
       <c r="C70">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
       <c r="C71">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.1296245713588991</v>
+        <v>21.85714285714286</v>
       </c>
       <c r="C72">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.4723587387782218</v>
+        <v>19.45454545454545</v>
       </c>
       <c r="C73">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-1.428772327590251</v>
+        <v>12.75</v>
       </c>
       <c r="C74">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.749738243835643</v>
+        <v>10.5</v>
       </c>
       <c r="C75">
-        <v>-0.2518973013571441</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.8725323137247548</v>
+        <v>28.88235294117647</v>
       </c>
       <c r="C76">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-1.107806411344858</v>
+        <v>29</v>
       </c>
       <c r="C77">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.8641410479405617</v>
+        <v>28.82352941176471</v>
       </c>
       <c r="C78">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.8803991253974363</v>
+        <v>28.9375</v>
       </c>
       <c r="C79">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.8809235795089483</v>
+        <v>28.94117647058824</v>
       </c>
       <c r="C80">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.8536519657103201</v>
+        <v>28.75</v>
       </c>
       <c r="C81">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-1.036480652179215</v>
+        <v>15.5</v>
       </c>
       <c r="C82">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.8607845416268842</v>
+        <v>28.8</v>
       </c>
       <c r="C83">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.8037239342943703</v>
+        <v>28.4</v>
       </c>
       <c r="C84">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.8536519657103202</v>
+        <v>28.75</v>
       </c>
       <c r="C85">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.6579054689154186</v>
+        <v>18.15384615384615</v>
       </c>
       <c r="C86">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7694875698948616</v>
+        <v>28.16</v>
       </c>
       <c r="C87">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-1.599161641152619</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="C88">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.8510336783485435</v>
+        <v>16.8</v>
       </c>
       <c r="C89">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-1.571423845921536</v>
+        <v>11.75</v>
       </c>
       <c r="C90">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-2.284681437577964</v>
+        <v>20.75</v>
       </c>
       <c r="C91">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7523693876951073</v>
+        <v>28.04</v>
       </c>
       <c r="C92">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.7676374060933303</v>
+        <v>17.38461538461539</v>
       </c>
       <c r="C93">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7466633269618557</v>
+        <v>28</v>
       </c>
       <c r="C94">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.8795639820148008</v>
+        <v>16.6</v>
       </c>
       <c r="C95">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7523693876951072</v>
+        <v>28.04</v>
       </c>
       <c r="C96">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C97">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.739548849669123</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="C98">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.8560684378190596</v>
+        <v>16.76470588235294</v>
       </c>
       <c r="C99">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C100">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.6323013502405724</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="C101">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.8054021874512086</v>
+        <v>28.41176470588235</v>
       </c>
       <c r="C102">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.8137934532354019</v>
+        <v>28.47058823529412</v>
       </c>
       <c r="C103">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.8179890861274985</v>
+        <v>28.5</v>
       </c>
       <c r="C104">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-1.329708773193524</v>
+        <v>13.44444444444444</v>
       </c>
       <c r="C105">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.7523693876951072</v>
+        <v>28.04</v>
       </c>
       <c r="C106">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.7466633269618557</v>
+        <v>28</v>
       </c>
       <c r="C107">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.4138097841888559</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="C108">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.2111397246910623</v>
+        <v>21.28571428571429</v>
       </c>
       <c r="C109">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-1.40329884217395</v>
+        <v>12.92857142857143</v>
       </c>
       <c r="C110">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-1.009733492492099</v>
+        <v>15.6875</v>
       </c>
       <c r="C111">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.6441889767681793</v>
+        <v>18.25</v>
       </c>
       <c r="C112">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.7466633269618559</v>
+        <v>28</v>
       </c>
       <c r="C113">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.8893148452931416</v>
+        <v>29</v>
       </c>
       <c r="C114">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.4896498319092867</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="C115">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-2.191957950662629</v>
+        <v>7.399999999999998</v>
       </c>
       <c r="C116">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.176057253636713</v>
+        <v>24</v>
       </c>
       <c r="C117">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.3662592780784275</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="C118">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.9201070451194817</v>
+        <v>16.31578947368421</v>
       </c>
       <c r="C119">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-1.725962990780429</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="C120">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.8957990052172907</v>
+        <v>29.04545454545454</v>
       </c>
       <c r="C121">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C122">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.7694875698948614</v>
+        <v>28.16</v>
       </c>
       <c r="C123">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8054021874512085</v>
+        <v>28.41176470588235</v>
       </c>
       <c r="C124">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.9116605736393402</v>
+        <v>16.375</v>
       </c>
       <c r="C125">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.7637815091616101</v>
+        <v>28.12</v>
       </c>
       <c r="C126">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.1567962891362867</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="C127">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.8581662542651078</v>
+        <v>16.75</v>
       </c>
       <c r="C128">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.4149276080214705</v>
+        <v>19.85714285714286</v>
       </c>
       <c r="C129">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.8957990052172909</v>
+        <v>29.04545454545454</v>
       </c>
       <c r="C130">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.8054021874512086</v>
+        <v>28.41176470588235</v>
       </c>
       <c r="C131">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.8374415658999467</v>
+        <v>28.63636363636364</v>
       </c>
       <c r="C132">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.6441889767681794</v>
+        <v>18.25</v>
       </c>
       <c r="C133">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-1.298008435786572</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="C134">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-1.393109448007429</v>
+        <v>4.333333333333331</v>
       </c>
       <c r="C135">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C136">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-1.413488236340469</v>
+        <v>12.85714285714286</v>
       </c>
       <c r="C137">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.8957990052172907</v>
+        <v>29.04545454545455</v>
       </c>
       <c r="C138">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.90228316514144</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="C139">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-2.249018557995143</v>
+        <v>6.999999999999998</v>
       </c>
       <c r="C140">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.9022831651414404</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="C141">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.1805715421915011</v>
+        <v>21.5</v>
       </c>
       <c r="C142">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C143">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-1.504060628931762</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="C144">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-1.236192777843015</v>
+        <v>14.1</v>
       </c>
       <c r="C145">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.7580754484283587</v>
+        <v>28.08</v>
       </c>
       <c r="C146">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
       <c r="C147">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.8054021874512085</v>
+        <v>28.41176470588235</v>
       </c>
       <c r="C148">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-1.041235702790258</v>
+        <v>15.46666666666667</v>
       </c>
       <c r="C149">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.915251484989739</v>
+        <v>29.18181818181818</v>
       </c>
       <c r="C150">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.9022831651414404</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="C151">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.5728632176025366</v>
+        <v>18.75</v>
       </c>
       <c r="C152">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.8957990052172909</v>
+        <v>29.04545454545455</v>
       </c>
       <c r="C153">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
       <c r="C154">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.8893148452931416</v>
+        <v>29</v>
       </c>
       <c r="C155">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.9022831651414404</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="C156">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-1.357446568424608</v>
+        <v>13.25</v>
       </c>
       <c r="C157">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.4658745788540725</v>
+        <v>19.5</v>
       </c>
       <c r="C158">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C159">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/train_results_True_1024_DecisionTreeRegressor.xlsx
+++ b/train_results_True_1024_DecisionTreeRegressor.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.04166666666667</v>
+        <v>0.8952586585569452</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.93333333333333</v>
+        <v>0.8798047440710558</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>-1.678412484670001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.22222222222222</v>
+        <v>0.9210151827000936</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.999999999999998</v>
+        <v>-2.249018557995143</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.83333333333333</v>
+        <v>-1.416884701062643</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.57142857142857</v>
+        <v>-0.1703821480249807</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>0.3187087719679989</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.8139534883721</v>
+        <v>0.8627750279291814</v>
       </c>
       <c r="C8">
-        <v>2.999999999999999</v>
+        <v>-2.819624631320286</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.875</v>
+        <v>0.4435288505078737</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.75</v>
+        <v>0.2830458923851774</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.83333333333333</v>
+        <v>-0.4183240727436439</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.8</v>
+        <v>0.8607845416268842</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.42857142857143</v>
+        <v>0.8077996919609782</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.25</v>
+        <v>0.7823262065446772</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.92307692307692</v>
+        <v>-0.690825050068792</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.2</v>
+        <v>-0.2233669976908868</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>0.3187087719679989</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.15384615384615</v>
+        <v>0.7686097143974382</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.5</v>
+        <v>0.8893148452931414</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.76923076923077</v>
+        <v>-0.7127714375043745</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.5</v>
+        <v>-1.607086725504357</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.4</v>
+        <v>0.8037239342943699</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.76923076923077</v>
+        <v>-0.7127714375043745</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.18181818181818</v>
+        <v>0.7725999666584532</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.04347826086957</v>
+        <v>0.8955170852205887</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.85714285714286</v>
+        <v>-1.556139754671756</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>12.46666666666667</v>
+        <v>-1.469190257784115</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>28.07692307692308</v>
+        <v>0.7576365206796472</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>26.42857142857143</v>
+        <v>0.5224966552984068</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9.500000000000002</v>
+        <v>-0.1092457830258582</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>28.66666666666667</v>
+        <v>0.8417643391827127</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>28.2</v>
+        <v>0.775193630628113</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>0.3187087719679989</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>28.625</v>
+        <v>0.8358205259189094</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>27.96</v>
+        <v>0.7409572662286044</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>29.2</v>
+        <v>0.9178451489593985</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>26.57142857142857</v>
+        <v>0.5428754436314478</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>29.04166666666667</v>
+        <v>0.895258658556945</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>29.04166666666667</v>
+        <v>0.895258658556945</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>-0.9651548930135722</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>18.57142857142857</v>
+        <v>-0.5983367030188377</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>18.76923076923077</v>
+        <v>-0.5701199191730889</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>28.16</v>
+        <v>0.7694875698948616</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>18.66666666666667</v>
+        <v>-0.5847508441301438</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>29.04166666666667</v>
+        <v>0.8952586585569451</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>27.16666666666667</v>
+        <v>0.6277870616857844</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>12.9375</v>
+        <v>-1.402025167903134</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>15.66666666666667</v>
+        <v>-1.012705399124001</v>
       </c>
       <c r="C46">
-        <v>8.000000000000002</v>
+        <v>-2.106367039663857</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>28.66666666666667</v>
+        <v>0.8417643391827129</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>17.76923076923077</v>
+        <v>-0.7127714375043743</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>28.52</v>
+        <v>0.8208421164941245</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>28.34375</v>
+        <v>0.7956997863882354</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>14.4</v>
+        <v>-1.193397322343629</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>-1.678412484670001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>28.82352941176471</v>
+        <v>0.8641410479405615</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>29.09090909090909</v>
+        <v>0.9022831651414402</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>29.04166666666667</v>
+        <v>0.8952586585569451</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>14.25</v>
+        <v>-1.214795050093322</v>
       </c>
       <c r="C55">
-        <v>2.999999999999999</v>
+        <v>-2.819624631320286</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>29.35714285714286</v>
+        <v>0.9402618161257434</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>23.2</v>
+        <v>0.06193603897168459</v>
       </c>
       <c r="C57">
-        <v>7.000000000000002</v>
+        <v>-2.249018557995143</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>27.8</v>
+        <v>0.7181330232955986</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.999999999999999</v>
+        <v>-0.9176043869031437</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>-0.2518973013571439</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>21.77777777777778</v>
+        <v>-1.892389762166929</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>22.92307692307692</v>
+        <v>0.02243254158763624</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>29</v>
+        <v>-0.9651548930135722</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>13.625</v>
+        <v>-1.303952249050376</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>18.57142857142857</v>
+        <v>-0.5983367030188376</v>
       </c>
       <c r="C65">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>25.875</v>
+        <v>-0.4183240727436439</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>22.55555555555556</v>
+        <v>-0.02999493950847727</v>
       </c>
       <c r="C67">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>29</v>
+        <v>-1.128185199677899</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>18.07692307692308</v>
+        <v>-0.6688786626332097</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>-0.9651548930135722</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>29.04347826086957</v>
+        <v>-1.107806411344858</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>18</v>
+        <v>-0.6798518563510011</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21.85714285714286</v>
+        <v>-1.892389762166929</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>19.45454545454545</v>
+        <v>-0.4723587387782218</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>12.75</v>
+        <v>-1.42877232759025</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>10.5</v>
+        <v>-1.749738243835643</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>-0.2518973013571441</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>28.88235294117647</v>
+        <v>0.8725323137247548</v>
       </c>
       <c r="C76">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
       <c r="C77">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>28.82352941176471</v>
+        <v>0.8641410479405616</v>
       </c>
       <c r="C78">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>28.9375</v>
+        <v>0.8803991253974361</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>-1.678412484670001</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>28.94117647058824</v>
+        <v>0.8809235795089483</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>28.75</v>
+        <v>0.85365196571032</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>15.5</v>
+        <v>-1.036480652179215</v>
       </c>
       <c r="C82">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>28.8</v>
+        <v>0.8607845416268844</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>28.4</v>
+        <v>0.8037239342943699</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>28.75</v>
+        <v>0.8536519657103201</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>18.15384615384615</v>
+        <v>-0.6579054689154186</v>
       </c>
       <c r="C86">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>28.16</v>
+        <v>0.7694875698948616</v>
       </c>
       <c r="C87">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>11.55555555555556</v>
+        <v>-1.599161641152619</v>
       </c>
       <c r="C88">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>16.8</v>
+        <v>-0.8510336783485437</v>
       </c>
       <c r="C89">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>11.75</v>
+        <v>-1.571423845921536</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>20.75</v>
+        <v>-2.284681437577965</v>
       </c>
       <c r="C91">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>28.04</v>
+        <v>0.7523693876951073</v>
       </c>
       <c r="C92">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>17.38461538461539</v>
+        <v>-0.7676374060933303</v>
       </c>
       <c r="C93">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>16.6</v>
+        <v>-0.8795639820148008</v>
       </c>
       <c r="C95">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>28.04</v>
+        <v>0.7523693876951073</v>
       </c>
       <c r="C96">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>29</v>
+        <v>0.8893148452931416</v>
       </c>
       <c r="C97">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>10.57142857142857</v>
+        <v>-1.739548849669122</v>
       </c>
       <c r="C98">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>16.76470588235294</v>
+        <v>-0.8560684378190596</v>
       </c>
       <c r="C99">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>18.33333333333333</v>
+        <v>-0.6323013502405723</v>
       </c>
       <c r="C101">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>28.41176470588235</v>
+        <v>0.8054021874512085</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>28.47058823529412</v>
+        <v>0.8137934532354019</v>
       </c>
       <c r="C103">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>28.5</v>
+        <v>0.8179890861274985</v>
       </c>
       <c r="C104">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>13.44444444444444</v>
+        <v>-1.329708773193524</v>
       </c>
       <c r="C105">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>28.04</v>
+        <v>0.7523693876951072</v>
       </c>
       <c r="C106">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
       <c r="C107">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>25.66666666666667</v>
+        <v>0.4138097841888559</v>
       </c>
       <c r="C108">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>21.28571428571429</v>
+        <v>-1.892389762166929</v>
       </c>
       <c r="C109">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>12.92857142857143</v>
+        <v>-1.40329884217395</v>
       </c>
       <c r="C110">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>15.6875</v>
+        <v>-1.009733492492099</v>
       </c>
       <c r="C111">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>18.25</v>
+        <v>-0.6441889767681793</v>
       </c>
       <c r="C112">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>28</v>
+        <v>0.7466633269618559</v>
       </c>
       <c r="C113">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
       <c r="C114">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>19.33333333333333</v>
+        <v>-0.4896498319092867</v>
       </c>
       <c r="C115">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.399999999999998</v>
+        <v>-2.191957950662629</v>
       </c>
       <c r="C116">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>24</v>
+        <v>0.176057253636713</v>
       </c>
       <c r="C117">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>25.33333333333333</v>
+        <v>0.3662592780784275</v>
       </c>
       <c r="C118">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>16.31578947368421</v>
+        <v>-0.9201070451194822</v>
       </c>
       <c r="C119">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>10.66666666666667</v>
+        <v>-1.725962990780429</v>
       </c>
       <c r="C120">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>29.04545454545454</v>
+        <v>0.8957990052172907</v>
       </c>
       <c r="C121">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
       <c r="C122">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>28.16</v>
+        <v>0.7694875698948614</v>
       </c>
       <c r="C123">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>28.41176470588235</v>
+        <v>0.8054021874512086</v>
       </c>
       <c r="C124">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>16.375</v>
+        <v>-0.9116605736393401</v>
       </c>
       <c r="C125">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>28.12</v>
+        <v>0.7637815091616101</v>
       </c>
       <c r="C126">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>21.66666666666667</v>
+        <v>-0.1567962891362868</v>
       </c>
       <c r="C127">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>16.75</v>
+        <v>-0.858166254265108</v>
       </c>
       <c r="C128">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>19.85714285714286</v>
+        <v>-0.4149276080214704</v>
       </c>
       <c r="C129">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>29.04545454545454</v>
+        <v>0.8957990052172909</v>
       </c>
       <c r="C130">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>28.41176470588235</v>
+        <v>0.8054021874512085</v>
       </c>
       <c r="C131">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>28.63636363636364</v>
+        <v>0.8374415658999467</v>
       </c>
       <c r="C132">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>18.25</v>
+        <v>-0.6441889767681795</v>
       </c>
       <c r="C133">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>13.66666666666667</v>
+        <v>-1.298008435786572</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>4.333333333333331</v>
+        <v>-1.393109448007429</v>
       </c>
       <c r="C135">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
       <c r="C136">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>12.85714285714286</v>
+        <v>-1.41348823634047</v>
       </c>
       <c r="C137">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>29.04545454545455</v>
+        <v>0.8957990052172909</v>
       </c>
       <c r="C138">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>15.66666666666667</v>
+        <v>-1.012705399124001</v>
       </c>
       <c r="C139">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6.999999999999998</v>
+        <v>-2.249018557995143</v>
       </c>
       <c r="C140">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>29.09090909090909</v>
+        <v>0.9022831651414402</v>
       </c>
       <c r="C141">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>21.5</v>
+        <v>-0.1805715421915011</v>
       </c>
       <c r="C142">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>29</v>
+        <v>0.8893148452931413</v>
       </c>
       <c r="C143">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>12.22222222222222</v>
+        <v>-1.504060628931762</v>
       </c>
       <c r="C144">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>14.1</v>
+        <v>-1.236192777843015</v>
       </c>
       <c r="C145">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>28.08</v>
+        <v>0.7580754484283587</v>
       </c>
       <c r="C146">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
       <c r="C147">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>28.41176470588235</v>
+        <v>0.8054021874512086</v>
       </c>
       <c r="C148">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>15.46666666666667</v>
+        <v>-1.041235702790258</v>
       </c>
       <c r="C149">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>29.18181818181818</v>
+        <v>0.915251484989739</v>
       </c>
       <c r="C150">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>29.09090909090909</v>
+        <v>0.90228316514144</v>
       </c>
       <c r="C151">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>18.75</v>
+        <v>-0.5728632176025366</v>
       </c>
       <c r="C152">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>29.04545454545455</v>
+        <v>-1.012705399124001</v>
       </c>
       <c r="C153">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
       <c r="C154">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>29</v>
+        <v>0.8893148452931416</v>
       </c>
       <c r="C155">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>29.09090909090909</v>
+        <v>0.9022831651414402</v>
       </c>
       <c r="C156">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>13.25</v>
+        <v>-1.357446568424608</v>
       </c>
       <c r="C157">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>19.5</v>
+        <v>-0.4658745788540724</v>
       </c>
       <c r="C158">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
       <c r="C159">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
   </sheetData>

--- a/train_results_True_1024_DecisionTreeRegressor.xlsx
+++ b/train_results_True_1024_DecisionTreeRegressor.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8952586585569452</v>
+        <v>29.04166666666667</v>
       </c>
       <c r="C2">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8798047440710558</v>
+        <v>28.93333333333333</v>
       </c>
       <c r="C3">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9210151827000936</v>
+        <v>29.22222222222222</v>
       </c>
       <c r="C4">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-2.249018557995143</v>
+        <v>6.999999999999998</v>
       </c>
       <c r="C5">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.416884701062643</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="C6">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.1703821480249807</v>
+        <v>21.57142857142857</v>
       </c>
       <c r="C7">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8627750279291814</v>
+        <v>28.8139534883721</v>
       </c>
       <c r="C8">
-        <v>-2.819624631320286</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4435288505078737</v>
+        <v>25.875</v>
       </c>
       <c r="C9">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2830458923851774</v>
+        <v>24.75</v>
       </c>
       <c r="C10">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.4183240727436439</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="C11">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8607845416268842</v>
+        <v>28.8</v>
       </c>
       <c r="C12">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8077996919609782</v>
+        <v>28.42857142857143</v>
       </c>
       <c r="C13">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7823262065446772</v>
+        <v>28.25</v>
       </c>
       <c r="C14">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.690825050068792</v>
+        <v>17.92307692307692</v>
       </c>
       <c r="C15">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.2233669976908868</v>
+        <v>21.2</v>
       </c>
       <c r="C16">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7686097143974382</v>
+        <v>28.15384615384615</v>
       </c>
       <c r="C17">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.7127714375043745</v>
+        <v>17.76923076923077</v>
       </c>
       <c r="C19">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-1.607086725504357</v>
+        <v>11.5</v>
       </c>
       <c r="C20">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8037239342943699</v>
+        <v>28.4</v>
       </c>
       <c r="C21">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.7127714375043745</v>
+        <v>17.76923076923077</v>
       </c>
       <c r="C22">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7725999666584532</v>
+        <v>28.18181818181818</v>
       </c>
       <c r="C23">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8955170852205887</v>
+        <v>29.04347826086957</v>
       </c>
       <c r="C24">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.556139754671756</v>
+        <v>11.85714285714286</v>
       </c>
       <c r="C25">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-1.469190257784115</v>
+        <v>12.46666666666667</v>
       </c>
       <c r="C26">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7576365206796472</v>
+        <v>28.07692307692308</v>
       </c>
       <c r="C27">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5224966552984068</v>
+        <v>26.42857142857143</v>
       </c>
       <c r="C28">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.1092457830258582</v>
+        <v>22</v>
       </c>
       <c r="C29">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8417643391827127</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="C30">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.775193630628113</v>
+        <v>28.2</v>
       </c>
       <c r="C31">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8358205259189094</v>
+        <v>28.625</v>
       </c>
       <c r="C32">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7409572662286044</v>
+        <v>27.96</v>
       </c>
       <c r="C33">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9178451489593985</v>
+        <v>29.2</v>
       </c>
       <c r="C35">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5428754436314478</v>
+        <v>26.57142857142857</v>
       </c>
       <c r="C36">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.895258658556945</v>
+        <v>29.04166666666666</v>
       </c>
       <c r="C37">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.895258658556945</v>
+        <v>29.04166666666667</v>
       </c>
       <c r="C38">
-        <v>-0.9651548930135722</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.5983367030188377</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="C39">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.5701199191730889</v>
+        <v>18.76923076923077</v>
       </c>
       <c r="C40">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7694875698948616</v>
+        <v>28.16</v>
       </c>
       <c r="C41">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.5847508441301438</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="C42">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.8952586585569451</v>
+        <v>29.04166666666667</v>
       </c>
       <c r="C43">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.6277870616857844</v>
+        <v>27.16666666666667</v>
       </c>
       <c r="C44">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.402025167903134</v>
+        <v>12.9375</v>
       </c>
       <c r="C45">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.012705399124001</v>
+        <v>28.61111111111111</v>
       </c>
       <c r="C46">
-        <v>-2.106367039663857</v>
+        <v>8.000000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.8417643391827129</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="C47">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.7127714375043743</v>
+        <v>17.76923076923077</v>
       </c>
       <c r="C48">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8208421164941245</v>
+        <v>28.52</v>
       </c>
       <c r="C49">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7956997863882354</v>
+        <v>28.34375</v>
       </c>
       <c r="C50">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.193397322343629</v>
+        <v>14.4</v>
       </c>
       <c r="C51">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.8641410479405615</v>
+        <v>28.82352941176471</v>
       </c>
       <c r="C52">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9022831651414402</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="C53">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.8952586585569451</v>
+        <v>29.04166666666667</v>
       </c>
       <c r="C54">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-1.214795050093322</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="C55">
-        <v>-2.819624631320286</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9402618161257434</v>
+        <v>29.35714285714286</v>
       </c>
       <c r="C56">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.06193603897168459</v>
+        <v>23.2</v>
       </c>
       <c r="C57">
-        <v>-2.249018557995143</v>
+        <v>7.000000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7181330232955986</v>
+        <v>27.8</v>
       </c>
       <c r="C58">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.9176043869031437</v>
+        <v>2.999999999999999</v>
       </c>
       <c r="C59">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.2518973013571439</v>
+        <v>21</v>
       </c>
       <c r="C60">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-1.892389762166929</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="C61">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.02243254158763624</v>
+        <v>22.92307692307692</v>
       </c>
       <c r="C62">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.9651548930135722</v>
+        <v>29</v>
       </c>
       <c r="C63">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-1.303952249050376</v>
+        <v>13.625</v>
       </c>
       <c r="C64">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.5983367030188376</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="C65">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.4183240727436439</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="C66">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.02999493950847727</v>
+        <v>22.55555555555556</v>
       </c>
       <c r="C67">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-1.128185199677899</v>
+        <v>29</v>
       </c>
       <c r="C68">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.6688786626332097</v>
+        <v>18.07692307692308</v>
       </c>
       <c r="C69">
-        <v>-0.9651548930135722</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.6798518563510011</v>
+        <v>18</v>
       </c>
       <c r="C71">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-1.892389762166929</v>
+        <v>9.500000000000002</v>
       </c>
       <c r="C72">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.4723587387782218</v>
+        <v>19.45454545454545</v>
       </c>
       <c r="C73">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-1.42877232759025</v>
+        <v>12.75</v>
       </c>
       <c r="C74">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.749738243835643</v>
+        <v>10.5</v>
       </c>
       <c r="C75">
-        <v>-0.2518973013571441</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.8725323137247548</v>
+        <v>28.88235294117647</v>
       </c>
       <c r="C76">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C77">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.8641410479405616</v>
+        <v>28.8235294117647</v>
       </c>
       <c r="C78">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.8803991253974361</v>
+        <v>28.9375</v>
       </c>
       <c r="C79">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.8809235795089483</v>
+        <v>28.94117647058824</v>
       </c>
       <c r="C80">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.85365196571032</v>
+        <v>28.75</v>
       </c>
       <c r="C81">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-1.036480652179215</v>
+        <v>15.5</v>
       </c>
       <c r="C82">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.8607845416268844</v>
+        <v>28.8</v>
       </c>
       <c r="C83">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.8037239342943699</v>
+        <v>28.4</v>
       </c>
       <c r="C84">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.8536519657103201</v>
+        <v>28.75</v>
       </c>
       <c r="C85">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.6579054689154186</v>
+        <v>18.15384615384615</v>
       </c>
       <c r="C86">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7694875698948616</v>
+        <v>28.16</v>
       </c>
       <c r="C87">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-1.599161641152619</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="C88">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.8510336783485437</v>
+        <v>16.8</v>
       </c>
       <c r="C89">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-1.571423845921536</v>
+        <v>11.75</v>
       </c>
       <c r="C90">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-2.284681437577965</v>
+        <v>6.749999999999999</v>
       </c>
       <c r="C91">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7523693876951073</v>
+        <v>28.04</v>
       </c>
       <c r="C92">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.7676374060933303</v>
+        <v>17.38461538461538</v>
       </c>
       <c r="C93">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
       <c r="C94">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.8795639820148008</v>
+        <v>16.6</v>
       </c>
       <c r="C95">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7523693876951073</v>
+        <v>28.04</v>
       </c>
       <c r="C96">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.8893148452931416</v>
+        <v>29</v>
       </c>
       <c r="C97">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.739548849669122</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="C98">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.8560684378190596</v>
+        <v>16.76470588235294</v>
       </c>
       <c r="C99">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C100">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.6323013502405723</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="C101">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.8054021874512085</v>
+        <v>28.41176470588235</v>
       </c>
       <c r="C102">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.8137934532354019</v>
+        <v>28.47058823529412</v>
       </c>
       <c r="C103">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.8179890861274985</v>
+        <v>28.5</v>
       </c>
       <c r="C104">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-1.329708773193524</v>
+        <v>13.44444444444444</v>
       </c>
       <c r="C105">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.7523693876951072</v>
+        <v>28.04</v>
       </c>
       <c r="C106">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
       <c r="C107">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.4138097841888559</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="C108">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-1.892389762166929</v>
+        <v>9.500000000000002</v>
       </c>
       <c r="C109">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-1.40329884217395</v>
+        <v>12.92857142857143</v>
       </c>
       <c r="C110">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-1.009733492492099</v>
+        <v>15.6875</v>
       </c>
       <c r="C111">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.6441889767681793</v>
+        <v>18.25</v>
       </c>
       <c r="C112">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.7466633269618559</v>
+        <v>28</v>
       </c>
       <c r="C113">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C114">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.4896498319092867</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="C115">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-2.191957950662629</v>
+        <v>7.399999999999998</v>
       </c>
       <c r="C116">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.176057253636713</v>
+        <v>24</v>
       </c>
       <c r="C117">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.3662592780784275</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="C118">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.9201070451194822</v>
+        <v>16.31578947368421</v>
       </c>
       <c r="C119">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-1.725962990780429</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="C120">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.8957990052172907</v>
+        <v>29.04545454545454</v>
       </c>
       <c r="C121">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C122">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.7694875698948614</v>
+        <v>15</v>
       </c>
       <c r="C123">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8054021874512086</v>
+        <v>28.41176470588235</v>
       </c>
       <c r="C124">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.9116605736393401</v>
+        <v>24</v>
       </c>
       <c r="C125">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.7637815091616101</v>
+        <v>28.12</v>
       </c>
       <c r="C126">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.1567962891362868</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="C127">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.858166254265108</v>
+        <v>16.75</v>
       </c>
       <c r="C128">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.4149276080214704</v>
+        <v>19.85714285714286</v>
       </c>
       <c r="C129">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.8957990052172909</v>
+        <v>29.04545454545454</v>
       </c>
       <c r="C130">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.8054021874512085</v>
+        <v>28.41176470588235</v>
       </c>
       <c r="C131">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.8374415658999467</v>
+        <v>28.63636363636363</v>
       </c>
       <c r="C132">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.6441889767681795</v>
+        <v>18.25</v>
       </c>
       <c r="C133">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-1.298008435786572</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="C134">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-1.393109448007429</v>
+        <v>4.333333333333331</v>
       </c>
       <c r="C135">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C136">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-1.41348823634047</v>
+        <v>12.85714285714286</v>
       </c>
       <c r="C137">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.8957990052172909</v>
+        <v>29.04545454545454</v>
       </c>
       <c r="C138">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-1.012705399124001</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="C139">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-2.249018557995143</v>
+        <v>6.999999999999998</v>
       </c>
       <c r="C140">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.9022831651414402</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="C141">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.1805715421915011</v>
+        <v>21.5</v>
       </c>
       <c r="C142">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.8893148452931413</v>
+        <v>29</v>
       </c>
       <c r="C143">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-1.504060628931762</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="C144">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-1.236192777843015</v>
+        <v>14.1</v>
       </c>
       <c r="C145">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.7580754484283587</v>
+        <v>28.08</v>
       </c>
       <c r="C146">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
       <c r="C147">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.8054021874512086</v>
+        <v>28.41176470588235</v>
       </c>
       <c r="C148">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-1.041235702790258</v>
+        <v>15.46666666666667</v>
       </c>
       <c r="C149">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.915251484989739</v>
+        <v>29.18181818181818</v>
       </c>
       <c r="C150">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.90228316514144</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="C151">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.5728632176025366</v>
+        <v>18.75</v>
       </c>
       <c r="C152">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-1.012705399124001</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="C153">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-1.107806411344858</v>
+        <v>11</v>
       </c>
       <c r="C154">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.8893148452931416</v>
+        <v>29</v>
       </c>
       <c r="C155">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.9022831651414402</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="C156">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-1.357446568424608</v>
+        <v>13.25</v>
       </c>
       <c r="C157">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.4658745788540724</v>
+        <v>19.5</v>
       </c>
       <c r="C158">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
       <c r="C159">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
